--- a/prob set 3 (2).xlsx
+++ b/prob set 3 (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donnel26\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39650CD-9A3D-47C2-8A99-B2C628AE27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D286F278-B3CA-46DC-9443-355EC58DE6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{3D9CDADF-415B-42B7-BF7A-9C8D4EBFAFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book Example" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Problem 1 Financial Analysis" sheetId="4" r:id="rId4"/>
     <sheet name="Problem 1 Economic Analysis" sheetId="5" r:id="rId5"/>
     <sheet name="Problem 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="270">
   <si>
     <t>Parameter</t>
   </si>
@@ -761,6 +762,108 @@
   <si>
     <t>Discount rate (farmer)</t>
   </si>
+  <si>
+    <t>CIF Price</t>
+  </si>
+  <si>
+    <t>Freight and insurance</t>
+  </si>
+  <si>
+    <t>FOB Price</t>
+  </si>
+  <si>
+    <t>Air Transport Cost</t>
+  </si>
+  <si>
+    <t>€ to LC</t>
+  </si>
+  <si>
+    <t>SA (LC/unit)</t>
+  </si>
+  <si>
+    <t>Paris (€/unit)</t>
+  </si>
+  <si>
+    <t>Farm-Gate Price (/unit)</t>
+  </si>
+  <si>
+    <t>Farm-Gate Price (total)</t>
+  </si>
+  <si>
+    <t>Farm-Gate Calculation</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Cost (LC)</t>
+  </si>
+  <si>
+    <t>Unskilled Labor (40%)</t>
+  </si>
+  <si>
+    <t>Domestic Costs (40%)</t>
+  </si>
+  <si>
+    <t>Foreign Exchange (20%)</t>
+  </si>
+  <si>
+    <t>Farmers' Share (20%)</t>
+  </si>
+  <si>
+    <t>Govt. Share (80%)</t>
+  </si>
+  <si>
+    <t>FINANCIAL</t>
+  </si>
+  <si>
+    <t>Production &amp; Costs per Hectare</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Yield (mt/ha)</t>
+  </si>
+  <si>
+    <t>Production Cost (LC/mt)</t>
+  </si>
+  <si>
+    <t>Foreign (LC/mt)</t>
+  </si>
+  <si>
+    <t>Domestic (LC/mt)</t>
+  </si>
+  <si>
+    <t>CIF Price (€/mt)</t>
+  </si>
+  <si>
+    <t>CIF Price (LC)</t>
+  </si>
+  <si>
+    <t>Freight (€/mt)</t>
+  </si>
+  <si>
+    <t>Handling (LC/mt)</t>
+  </si>
+  <si>
+    <t>Green Beans</t>
+  </si>
+  <si>
+    <t>Total Production &amp; Revenue Calculation</t>
+  </si>
+  <si>
+    <t>Total Hectares</t>
+  </si>
+  <si>
+    <t>Total Farmers</t>
+  </si>
+  <si>
+    <t>Strawberries (mt)</t>
+  </si>
+  <si>
+    <t>Green Beans (mt)</t>
+  </si>
 </sst>
 </file>
 
@@ -771,7 +874,7 @@
     <numFmt numFmtId="164" formatCode="0.0000000000000000%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,6 +983,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -937,7 +1062,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1190,12 +1315,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1407,6 +1543,142 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,18 +2026,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" customWidth="1"/>
-    <col min="8" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
+    <col min="8" max="10" width="10.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" ht="15" thickBot="1">
       <c r="A1" t="s">
         <v>88</v>
       </c>
@@ -1789,7 +2061,7 @@
       <c r="R1" s="21"/>
       <c r="S1" s="22"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="15">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1816,7 +2088,7 @@
       </c>
       <c r="V2" s="22"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1865,7 +2137,7 @@
       </c>
       <c r="V3" s="24"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1913,7 +2185,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1974,7 +2246,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2035,7 +2307,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="15" thickBot="1">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -2095,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
@@ -2138,7 +2410,7 @@
       </c>
       <c r="S8" s="24"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2173,7 +2445,7 @@
       </c>
       <c r="S9" s="24"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2224,7 +2496,7 @@
       </c>
       <c r="S10" s="24"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2274,7 +2546,7 @@
       </c>
       <c r="S11" s="24"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2318,7 +2590,7 @@
       </c>
       <c r="S12" s="24"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2637,7 @@
       </c>
       <c r="S13" s="24"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15">
       <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
@@ -2405,7 +2677,7 @@
       </c>
       <c r="S14" s="24"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2448,7 +2720,7 @@
       </c>
       <c r="S15" s="24"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15">
       <c r="F16" s="26"/>
       <c r="H16" s="24"/>
       <c r="I16" s="1" t="s">
@@ -2467,7 +2739,7 @@
       </c>
       <c r="S16" s="24"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
@@ -2485,7 +2757,7 @@
       <c r="N17" s="26"/>
       <c r="S17" s="24"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" ht="15">
       <c r="B18" t="s">
         <v>74</v>
       </c>
@@ -2518,7 +2790,7 @@
       </c>
       <c r="S18" s="24"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -2545,7 +2817,7 @@
       <c r="N19" s="26"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15">
       <c r="B20" t="s">
         <v>76</v>
       </c>
@@ -2575,7 +2847,7 @@
       </c>
       <c r="S20" s="24"/>
     </row>
-    <row r="21" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>79</v>
       </c>
@@ -2609,7 +2881,7 @@
       </c>
       <c r="S21" s="24"/>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -2640,7 +2912,7 @@
       </c>
       <c r="S22" s="24"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" t="s">
         <v>83</v>
       </c>
@@ -2661,7 +2933,7 @@
       <c r="N23" s="26"/>
       <c r="S23" s="24"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -2694,7 +2966,7 @@
       <c r="P24" s="6"/>
       <c r="S24" s="24"/>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="15" thickBot="1">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -2723,13 +2995,13 @@
       <c r="R25" s="30"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22">
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="15">
       <c r="A27" s="7" t="s">
         <v>89</v>
       </c>
@@ -2753,7 +3025,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22">
       <c r="B28">
         <v>2015</v>
       </c>
@@ -2818,7 +3090,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="15">
       <c r="A29" s="3" t="s">
         <v>90</v>
       </c>
@@ -2886,12 +3158,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="15">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -2904,7 +3176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -2917,7 +3189,7 @@
         <v>86.35</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="15">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -3006,7 +3278,7 @@
         <v>160.35</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15">
       <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
@@ -3091,7 +3363,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" ht="15">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -3176,7 +3448,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" ht="15">
       <c r="A39" s="1" t="s">
         <v>96</v>
       </c>
@@ -3265,12 +3537,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" ht="15">
       <c r="A41" s="9"/>
       <c r="B41" s="8">
         <v>0.05</v>
@@ -3282,7 +3554,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22">
       <c r="A42" s="10" t="s">
         <v>98</v>
       </c>
@@ -3299,7 +3571,7 @@
         <v>-178.3472147201453</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22">
       <c r="A43" s="11" t="s">
         <v>99</v>
       </c>
@@ -3322,10 +3594,10 @@
         <v>24500.000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" ht="15">
       <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
@@ -3353,7 +3625,7 @@
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22">
       <c r="B46">
         <v>2015</v>
       </c>
@@ -3418,7 +3690,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="15">
       <c r="A47" s="3" t="s">
         <v>90</v>
       </c>
@@ -3486,17 +3758,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="15">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="15">
       <c r="A49" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -3554,7 +3826,7 @@
       <c r="U50" s="16"/>
       <c r="V50" s="16"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>83</v>
       </c>
@@ -3567,12 +3839,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
         <v>82</v>
       </c>
@@ -3617,7 +3889,7 @@
         <v>2.8462932490348658</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -3638,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" ht="15">
       <c r="A55" s="1" t="s">
         <v>106</v>
       </c>
@@ -3687,7 +3959,7 @@
         <v>84.168957507173914</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="15">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -3776,12 +4048,12 @@
         <v>284.13649999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="15">
       <c r="A59" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -3866,7 +4138,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
         <v>55</v>
       </c>
@@ -3951,7 +4223,7 @@
         <v>-201.21350000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -4036,7 +4308,7 @@
         <v>-12.5</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -4121,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -4206,7 +4478,7 @@
         <v>111.28649999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -4291,12 +4563,12 @@
         <v>27.821624999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" ht="15">
       <c r="A67" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" ht="15">
       <c r="A68" s="1" t="s">
         <v>112</v>
       </c>
@@ -4385,7 +4657,7 @@
         <v>256.31487499999997</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="15">
       <c r="A70" s="9"/>
       <c r="B70" s="8">
         <v>0.05</v>
@@ -4397,7 +4669,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22">
       <c r="A71" s="10" t="s">
         <v>98</v>
       </c>
@@ -4414,7 +4686,7 @@
         <v>60.357831214737487</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22">
       <c r="A72" s="11" t="s">
         <v>99</v>
       </c>
@@ -4425,7 +4697,7 @@
       <c r="C72" s="12"/>
       <c r="D72" s="14"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="15">
       <c r="A74" s="7" t="s">
         <v>134</v>
       </c>
@@ -4453,7 +4725,7 @@
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22">
       <c r="B75">
         <v>2015</v>
       </c>
@@ -4518,7 +4790,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" ht="15">
       <c r="A76" s="3" t="s">
         <v>90</v>
       </c>
@@ -4586,12 +4858,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15">
       <c r="A77" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4876,7 @@
         <v>68.86363636363636</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -4617,7 +4889,7 @@
         <v>104.19658</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="15">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
@@ -4706,7 +4978,7 @@
         <v>173.06021636363636</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" ht="15">
       <c r="A82" s="1" t="s">
         <v>55</v>
       </c>
@@ -4791,7 +5063,7 @@
         <v>-228.49871150912855</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" ht="15">
       <c r="A84" s="1" t="s">
         <v>68</v>
       </c>
@@ -4876,7 +5148,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" ht="15">
       <c r="A85" s="1" t="s">
         <v>129</v>
       </c>
@@ -4960,7 +5232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" ht="15">
       <c r="A87" s="1" t="s">
         <v>96</v>
       </c>
@@ -5049,7 +5321,7 @@
         <v>259.5615048545078</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" ht="15">
       <c r="A89" s="9"/>
       <c r="B89" s="8">
         <v>0.05</v>
@@ -5061,7 +5333,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23">
       <c r="A90" s="10" t="s">
         <v>98</v>
       </c>
@@ -5095,7 +5367,7 @@
       <c r="U90" s="16"/>
       <c r="V90" s="16"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23">
       <c r="A91" s="11" t="s">
         <v>99</v>
       </c>
@@ -5106,10 +5378,10 @@
       <c r="C91" s="12"/>
       <c r="D91" s="14"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" ht="15">
       <c r="A97" s="3"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" ht="15">
       <c r="A98" s="1"/>
     </row>
   </sheetData>
@@ -5126,27 +5398,27 @@
       <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="53"/>
+    <col min="1" max="1" width="26.375" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="53" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.875" style="53" customWidth="1"/>
+    <col min="16" max="16384" width="8.75" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -5161,7 +5433,7 @@
       </c>
       <c r="M1" s="60"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -5195,7 +5467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -5223,7 +5495,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -5261,7 +5533,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -5298,7 +5570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -5331,7 +5603,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -5351,7 +5623,7 @@
       </c>
       <c r="I7" s="54"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -5374,7 +5646,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15">
       <c r="A9" s="51"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -5393,7 +5665,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -5416,7 +5688,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -5439,7 +5711,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -5456,7 +5728,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="19.5" customHeight="1">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -5494,7 +5766,7 @@
       </c>
       <c r="M13" s="54"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13">
       <c r="G14" s="53" t="s">
         <v>153</v>
       </c>
@@ -5517,24 +5789,24 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13">
       <c r="H15" s="54"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="21.95" customHeight="1">
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
       <c r="G16" s="53" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" thickBot="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -5556,7 +5828,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19"/>
       <c r="B19" s="1" t="s">
         <v>176</v>
@@ -5593,7 +5865,7 @@
         <v>47907.561513717577</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -5634,7 +5906,7 @@
         <v>-1.6162230312956241</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -5679,7 +5951,7 @@
         <v>0.3278984969733878</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" s="1" t="s">
         <v>180</v>
       </c>
@@ -5695,7 +5967,7 @@
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5732,7 +6004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -5777,7 +6049,7 @@
         <v>-6582.5698679716879</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -5822,7 +6094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="1" t="s">
         <v>179</v>
       </c>
@@ -5868,7 +6140,7 @@
         <v>-6562.5698679716879</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -5882,7 +6154,7 @@
       <c r="K27"/>
       <c r="L27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
@@ -5927,7 +6199,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -5941,7 +6213,7 @@
       <c r="K29"/>
       <c r="L29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
@@ -5987,7 +6259,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" thickBot="1">
       <c r="A31" t="s">
         <v>95</v>
       </c>
@@ -6004,7 +6276,7 @@
       <c r="L31"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" s="68" t="s">
         <v>157</v>
       </c>
@@ -6026,7 +6298,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33"/>
       <c r="B33" s="1" t="s">
         <v>176</v>
@@ -6063,7 +6335,7 @@
         <v>41677.996023177642</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34" t="s">
@@ -6101,7 +6373,7 @@
       </c>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -6146,7 +6418,7 @@
         <v>0.78602099321495267</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -6162,7 +6434,7 @@
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15">
       <c r="A37" s="1" t="s">
         <v>104</v>
       </c>
@@ -6178,7 +6450,7 @@
       <c r="K37"/>
       <c r="L37"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -6224,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -6240,7 +6512,7 @@
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
@@ -6256,7 +6528,7 @@
       <c r="K40"/>
       <c r="L40"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -6301,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -6319,7 +6591,7 @@
       <c r="K42"/>
       <c r="L42"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" s="1" t="s">
         <v>106</v>
       </c>
@@ -6365,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -6379,7 +6651,7 @@
       <c r="K44"/>
       <c r="L44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" s="1" t="s">
         <v>107</v>
       </c>
@@ -6425,7 +6697,7 @@
         <v>17437.430132028312</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -6439,7 +6711,7 @@
       <c r="K46"/>
       <c r="L46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15">
       <c r="A47" s="3" t="s">
         <v>108</v>
       </c>
@@ -6484,7 +6756,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -6498,7 +6770,7 @@
       <c r="K48"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="15">
       <c r="A49" s="3" t="s">
         <v>115</v>
       </c>
@@ -6514,7 +6786,7 @@
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="15">
       <c r="A50" s="1" t="s">
         <v>112</v>
       </c>
@@ -6560,7 +6832,7 @@
         <v>15837.430132028312</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -6574,7 +6846,7 @@
       <c r="K51"/>
       <c r="L51"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -6584,7 +6856,7 @@
       <c r="G52"/>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -6596,7 +6868,7 @@
       <c r="I53"/>
       <c r="M53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -6607,14 +6879,14 @@
       <c r="H54"/>
       <c r="J54"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18">
       <c r="N60"/>
       <c r="O60"/>
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18">
       <c r="O64"/>
       <c r="P64"/>
     </row>
@@ -6631,12 +6903,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6647,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -6658,7 +6930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6669,7 +6941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6680,7 +6952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6702,7 +6974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6713,7 +6985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6724,7 +6996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -6735,7 +7007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -6746,7 +7018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6757,7 +7029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6768,7 +7040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6779,7 +7051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -6790,7 +7062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -6801,7 +7073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -6812,7 +7084,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -6823,7 +7095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6834,7 +7106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -6845,7 +7117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -6856,7 +7128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -6867,7 +7139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -6878,7 +7150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6889,7 +7161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -6900,7 +7172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -6920,31 +7192,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFCE835-A550-442C-AE85-1BD2BBFE091E}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" style="53" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" style="53" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="53" customWidth="1"/>
-    <col min="6" max="6" width="11.26953125" style="53" customWidth="1"/>
-    <col min="7" max="7" width="16.90625" style="53" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="53" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="13.36328125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="53" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="53" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="53" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="53" customWidth="1"/>
+    <col min="7" max="7" width="16.875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="53" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="53" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="53" customWidth="1"/>
     <col min="13" max="13" width="22" style="53" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" style="53" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.90625" style="53" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="53"/>
+    <col min="14" max="14" width="10.875" style="53" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" style="53" customWidth="1"/>
+    <col min="16" max="16" width="8.75" style="53"/>
+    <col min="17" max="17" width="13.25" style="53" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -6962,7 +7236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -7000,7 +7274,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -7028,7 +7302,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -7070,7 +7344,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -7111,7 +7385,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -7144,7 +7418,7 @@
       <c r="L6" s="54"/>
       <c r="M6" s="54"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -7167,7 +7441,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -7190,7 +7464,7 @@
       </c>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="51"/>
       <c r="D9" s="54"/>
       <c r="E9" s="54"/>
@@ -7209,7 +7483,7 @@
       </c>
       <c r="M9" s="56"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -7232,7 +7506,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -7255,7 +7529,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -7272,7 +7546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="19.5" customHeight="1">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -7309,8 +7583,17 @@
         <v>177</v>
       </c>
       <c r="M13" s="54"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O13" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q13" s="121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="G14" s="53" t="s">
         <v>153</v>
       </c>
@@ -7332,15 +7615,31 @@
         <f>K14*H14</f>
         <v>24000</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="O14" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="P14" s="122">
+        <f>K14</f>
+        <v>60</v>
+      </c>
+      <c r="Q14" s="56">
+        <f>I14</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15">
       <c r="D15" s="51" t="s">
         <v>196</v>
       </c>
       <c r="H15" s="54"/>
       <c r="J15" s="54"/>
-    </row>
-    <row r="16" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O15" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="56"/>
+    </row>
+    <row r="16" spans="1:17" ht="21.95" customHeight="1">
       <c r="D16" s="88">
         <f>(1+D13)/(1+M3)-1</f>
         <v>5.8823529411764719E-2</v>
@@ -7350,14 +7649,33 @@
       <c r="G16" s="53" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O16" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="P16" s="122">
+        <f>I5</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="56">
+        <f>J5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" thickBot="1">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O17" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="56">
+        <f>Q14-Q16</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -7378,8 +7696,16 @@
         <f>O4</f>
         <v>0.12200000000000011</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O18" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="122">
+        <f>Q17*M2</f>
+        <v>55</v>
+      </c>
+      <c r="Q18" s="56"/>
+    </row>
+    <row r="19" spans="1:17" ht="15">
       <c r="A19"/>
       <c r="B19" t="s">
         <v>164</v>
@@ -7412,8 +7738,19 @@
         <f>NPV(O4,B37:K37)</f>
         <v>14247.112730894703</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O19" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="P19" s="122">
+        <f>I4</f>
+        <v>2</v>
+      </c>
+      <c r="Q19" s="56">
+        <f>J4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15">
       <c r="A20"/>
       <c r="B20" t="s">
         <v>154</v>
@@ -7452,8 +7789,19 @@
         <f>NPV(O5,B22:K22)/NPV(O4,B23:K23)</f>
         <v>1.2195905245832674</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O20" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="122">
+        <f>I6</f>
+        <v>4</v>
+      </c>
+      <c r="Q20" s="56">
+        <f>J6</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -7494,8 +7842,19 @@
         <f>IRR(B37:K37)</f>
         <v>0.33534077401956885</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O21" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="122">
+        <f>I3</f>
+        <v>2.5</v>
+      </c>
+      <c r="Q21" s="56">
+        <f>J3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="78" t="s">
         <v>183</v>
       </c>
@@ -7507,7 +7866,7 @@
         <v>24969.599999999999</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="C22:K22" si="1">$L$14*(1+$M$3)^D21</f>
+        <f t="shared" ref="D22:K22" si="1">$L$14*(1+$M$3)^D21</f>
         <v>25468.991999999998</v>
       </c>
       <c r="E22">
@@ -7540,8 +7899,16 @@
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O22" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="P22" s="122">
+        <f>P18-P19-P20-P21</f>
+        <v>46.5</v>
+      </c>
+      <c r="Q22" s="56"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" thickBot="1">
       <c r="A23" s="78" t="s">
         <v>180</v>
       </c>
@@ -7587,8 +7954,16 @@
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O23" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" s="126">
+        <f>P22*H14</f>
+        <v>18600</v>
+      </c>
+      <c r="Q23" s="67"/>
+    </row>
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" s="83" t="s">
         <v>191</v>
       </c>
@@ -7634,7 +8009,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15">
       <c r="A25" s="83" t="s">
         <v>192</v>
       </c>
@@ -7680,7 +8055,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15">
       <c r="A26" s="83" t="s">
         <v>193</v>
       </c>
@@ -7697,7 +8072,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15">
       <c r="A27" s="80" t="s">
         <v>184</v>
       </c>
@@ -7717,7 +8092,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15">
       <c r="A28" s="80" t="s">
         <v>185</v>
       </c>
@@ -7737,7 +8112,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" s="80" t="s">
         <v>186</v>
       </c>
@@ -7780,7 +8155,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15">
       <c r="A30" s="80" t="s">
         <v>187</v>
       </c>
@@ -7823,7 +8198,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15">
       <c r="A31" s="79" t="s">
         <v>188</v>
       </c>
@@ -7870,7 +8245,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="79" t="s">
         <v>189</v>
       </c>
@@ -7908,7 +8283,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="81" t="s">
         <v>190</v>
       </c>
@@ -7954,7 +8329,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34"/>
@@ -7969,7 +8344,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>194</v>
       </c>
@@ -8016,11 +8391,11 @@
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" ht="15.75" thickBot="1">
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15">
       <c r="A37" s="84" t="s">
         <v>112</v>
       </c>
@@ -8069,7 +8444,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15">
       <c r="A38" s="1"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -8089,7 +8464,7 @@
         <v>14247.112730894709</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="86" t="s">
         <v>195</v>
       </c>
@@ -8113,7 +8488,7 @@
         <v>1.219590524583267</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
       <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
@@ -8155,7 +8530,7 @@
         <v>0.30915762158932103</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13">
       <c r="A41" s="78" t="s">
         <v>183</v>
       </c>
@@ -8199,7 +8574,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13">
       <c r="A42" s="78" t="s">
         <v>180</v>
       </c>
@@ -8244,7 +8619,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="83" t="s">
         <v>191</v>
       </c>
@@ -8288,7 +8663,7 @@
         <v>8000.0000000000009</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15">
       <c r="A44" s="83" t="s">
         <v>192</v>
       </c>
@@ -8332,7 +8707,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15">
       <c r="A45" s="83" t="s">
         <v>193</v>
       </c>
@@ -8347,7 +8722,7 @@
       <c r="J45"/>
       <c r="K45"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="A46" s="80" t="s">
         <v>184</v>
       </c>
@@ -8365,7 +8740,7 @@
       <c r="J46"/>
       <c r="K46"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="A47" s="80" t="s">
         <v>185</v>
       </c>
@@ -8383,7 +8758,7 @@
       <c r="J47"/>
       <c r="K47"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="A48" s="80" t="s">
         <v>186</v>
       </c>
@@ -8427,7 +8802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17">
       <c r="A49" s="80" t="s">
         <v>187</v>
       </c>
@@ -8471,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17">
       <c r="A50" s="79" t="s">
         <v>188</v>
       </c>
@@ -8516,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17">
       <c r="A51" s="79" t="s">
         <v>189</v>
       </c>
@@ -8552,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17">
       <c r="A52" s="81" t="s">
         <v>190</v>
       </c>
@@ -8600,7 +8975,7 @@
       <c r="P52"/>
       <c r="Q52"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="15">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53"/>
@@ -8613,7 +8988,7 @@
       <c r="J53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="15">
       <c r="A54" s="1" t="s">
         <v>194</v>
       </c>
@@ -8658,10 +9033,10 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17">
       <c r="L55"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="15">
       <c r="A56" s="84" t="s">
         <v>112</v>
       </c>
@@ -8708,7 +9083,7 @@
       <c r="N56"/>
       <c r="O56"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17">
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -8717,7 +9092,7 @@
       <c r="G57"/>
       <c r="I57"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17">
       <c r="M62"/>
     </row>
   </sheetData>
@@ -8730,19 +9105,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CF832C-4A65-4FC2-BE35-F9DA62EB6B4E}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView zoomScale="70" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
-    <col min="12" max="12" width="11.453125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
@@ -8778,7 +9153,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -8827,7 +9202,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -8870,7 +9245,7 @@
       </c>
       <c r="U3" s="53"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="53" t="s">
         <v>161</v>
       </c>
@@ -8924,7 +9299,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>143</v>
       </c>
@@ -8978,7 +9353,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21">
       <c r="A6" s="53" t="s">
         <v>144</v>
       </c>
@@ -9021,7 +9396,7 @@
       <c r="R6" s="54"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1">
       <c r="A7" s="53" t="s">
         <v>145</v>
       </c>
@@ -9064,7 +9439,7 @@
       <c r="R7" s="53"/>
       <c r="S7" s="53"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1">
       <c r="A8" s="51" t="s">
         <v>42</v>
       </c>
@@ -9100,7 +9475,7 @@
       </c>
       <c r="S8" s="57"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="51"/>
       <c r="B9" s="53"/>
       <c r="C9" s="53"/>
@@ -9131,7 +9506,7 @@
       </c>
       <c r="S9" s="56"/>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1">
       <c r="A10" s="52" t="s">
         <v>79</v>
       </c>
@@ -9168,7 +9543,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1">
       <c r="A11" s="51" t="s">
         <v>142</v>
       </c>
@@ -9203,7 +9578,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="53" t="s">
         <v>162</v>
       </c>
@@ -9236,7 +9611,7 @@
       <c r="R12" s="53"/>
       <c r="S12" s="53"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -9282,7 +9657,7 @@
       <c r="Q13" s="51"/>
       <c r="S13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="15" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -9320,7 +9695,7 @@
       <c r="Q14" s="53"/>
       <c r="S14" s="53"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -9343,7 +9718,7 @@
       <c r="R15" s="53"/>
       <c r="S15" s="53"/>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -9369,7 +9744,7 @@
       <c r="R16" s="53"/>
       <c r="S16" s="53"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" ht="15" thickBot="1">
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
@@ -9384,7 +9759,7 @@
       <c r="P17" s="53"/>
       <c r="Q17" s="53"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15">
       <c r="A18" s="68" t="s">
         <v>157</v>
       </c>
@@ -9406,7 +9781,7 @@
         <v>0.12200000000000011</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15">
       <c r="B19" t="s">
         <v>164</v>
       </c>
@@ -9436,7 +9811,7 @@
         <v>41612.629971399925</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15">
       <c r="B20" t="s">
         <v>154</v>
       </c>
@@ -9475,7 +9850,7 @@
         <v>10.831160280245678</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -9517,7 +9892,7 @@
         <v>0.33046070707211062</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15">
       <c r="A22" s="78" t="s">
         <v>183</v>
       </c>
@@ -9563,7 +9938,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15">
       <c r="A23" s="78" t="s">
         <v>180</v>
       </c>
@@ -9610,7 +9985,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="53" customFormat="1" ht="15">
       <c r="A24" s="94" t="s">
         <v>201</v>
       </c>
@@ -9627,7 +10002,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:17" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="53" customFormat="1" ht="15">
       <c r="A25" s="95" t="s">
         <v>184</v>
       </c>
@@ -9647,7 +10022,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15">
       <c r="A26" s="94" t="s">
         <v>191</v>
       </c>
@@ -9693,7 +10068,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15">
       <c r="A27" s="94" t="s">
         <v>199</v>
       </c>
@@ -9739,13 +10114,13 @@
       <c r="L27" s="1"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" s="1" t="s">
         <v>194</v>
       </c>
@@ -9792,7 +10167,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -9807,7 +10182,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15">
       <c r="A31" s="84" t="s">
         <v>200</v>
       </c>
@@ -9854,12 +10229,12 @@
       <c r="L31" s="1"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15">
       <c r="A33" s="86" t="s">
         <v>195</v>
       </c>
@@ -9872,7 +10247,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15">
       <c r="A34" s="3" t="s">
         <v>90</v>
       </c>
@@ -9909,7 +10284,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15">
       <c r="A35" s="78" t="s">
         <v>183</v>
       </c>
@@ -9955,7 +10330,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15">
       <c r="A36" s="78" t="s">
         <v>180</v>
       </c>
@@ -10002,7 +10377,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" s="53" customFormat="1" ht="15">
       <c r="A37" s="94" t="s">
         <v>201</v>
       </c>
@@ -10019,7 +10394,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="1:13" s="53" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" s="53" customFormat="1" ht="15">
       <c r="A38" s="95" t="s">
         <v>184</v>
       </c>
@@ -10039,7 +10414,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15">
       <c r="A39" s="94" t="s">
         <v>202</v>
       </c>
@@ -10085,7 +10460,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="15.75" thickBot="1">
       <c r="A40" s="94" t="s">
         <v>203</v>
       </c>
@@ -10131,7 +10506,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="L41" s="74"/>
@@ -10139,7 +10514,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15">
       <c r="A42" s="1" t="s">
         <v>194</v>
       </c>
@@ -10191,7 +10566,7 @@
         <v>41612.62997139994</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -10211,7 +10586,7 @@
         <v>10.831160280245674</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" ht="15.75" thickBot="1">
       <c r="A44" s="84" t="s">
         <v>200</v>
       </c>
@@ -10263,66 +10638,66 @@
         <v>0.30437324222756001</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13">
       <c r="L45" s="53"/>
       <c r="M45" s="53"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13">
       <c r="L46" s="53"/>
       <c r="M46" s="53"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13">
       <c r="L47" s="53"/>
       <c r="M47" s="53"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13">
       <c r="L48" s="53"/>
       <c r="M48" s="53"/>
     </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:13">
       <c r="L49" s="53"/>
       <c r="M49" s="53"/>
     </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:13">
       <c r="L50" s="53"/>
       <c r="M50" s="53"/>
     </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:13">
       <c r="L51" s="53"/>
       <c r="M51" s="53"/>
     </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:13">
       <c r="L52" s="53"/>
       <c r="M52" s="53"/>
     </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:13">
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
     </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:13">
       <c r="L54" s="53"/>
       <c r="M54" s="53"/>
     </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:13">
       <c r="L55" s="53"/>
       <c r="M55" s="53"/>
     </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:13">
       <c r="L56" s="53"/>
       <c r="M56" s="53"/>
     </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:13">
       <c r="L57" s="53"/>
       <c r="M57" s="53"/>
     </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:13">
       <c r="L58" s="53"/>
       <c r="M58" s="53"/>
     </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:13">
       <c r="M59" s="53"/>
     </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:13">
       <c r="L60" s="53"/>
       <c r="M60" s="53"/>
     </row>
@@ -10336,23 +10711,23 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="52" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="53"/>
       <c r="C1" s="53"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="51" t="s">
         <v>142</v>
       </c>
@@ -10378,7 +10753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="51" t="s">
         <v>141</v>
       </c>
@@ -10391,7 +10766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" s="113" t="s">
         <v>206</v>
       </c>
@@ -10414,7 +10789,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15">
       <c r="A5" s="113" t="s">
         <v>207</v>
       </c>
@@ -10464,7 +10839,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" s="113"/>
       <c r="B6" s="53"/>
       <c r="C6" s="54"/>
@@ -10502,7 +10877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="51" t="s">
         <v>208</v>
       </c>
@@ -10543,7 +10918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8" s="53" t="s">
         <v>211</v>
       </c>
@@ -10557,7 +10932,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15">
       <c r="A9" s="53" t="s">
         <v>209</v>
       </c>
@@ -10574,7 +10949,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15">
       <c r="A10" s="111" t="s">
         <v>210</v>
       </c>
@@ -10589,8 +10964,8 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1"/>
+    <row r="12" spans="1:18" ht="15">
       <c r="A12" s="59" t="s">
         <v>100</v>
       </c>
@@ -10600,7 +10975,7 @@
       </c>
       <c r="D12" s="57"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="15">
       <c r="A13" s="61" t="s">
         <v>160</v>
       </c>
@@ -10612,7 +10987,7 @@
       </c>
       <c r="D13" s="56"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15">
       <c r="A14" s="61" t="s">
         <v>234</v>
       </c>
@@ -10626,7 +11001,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="63" t="s">
         <v>235</v>
       </c>
@@ -10640,11 +11015,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="15">
       <c r="F16" s="51"/>
       <c r="G16" s="90"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" ht="15">
       <c r="A17" s="19" t="s">
         <v>114</v>
       </c>
@@ -10653,7 +11028,7 @@
       <c r="F17" s="51"/>
       <c r="G17" s="90"/>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="15" thickBot="1">
       <c r="B18" t="s">
         <v>205</v>
       </c>
@@ -10661,7 +11036,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" ht="15">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -10707,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="15">
       <c r="A20" s="78" t="s">
         <v>183</v>
       </c>
@@ -10752,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="15">
       <c r="A21" s="78" t="s">
         <v>180</v>
       </c>
@@ -10764,7 +11139,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1">
       <c r="A22" s="83" t="s">
         <v>191</v>
       </c>
@@ -10776,76 +11151,76 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" ht="15">
       <c r="A23" s="83" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="15">
       <c r="A24" s="83" t="s">
         <v>193</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="53"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" ht="15">
       <c r="A25" s="80" t="s">
         <v>184</v>
       </c>
       <c r="U25" s="52"/>
       <c r="V25" s="53"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22">
       <c r="A26" s="80" t="s">
         <v>185</v>
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="53"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22">
       <c r="A27" s="80" t="s">
         <v>186</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="53"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22">
       <c r="A28" s="80" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22">
       <c r="A29" s="79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22">
       <c r="A30" s="79" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22">
       <c r="A31" s="81" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" ht="15">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="53"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="15">
       <c r="A35" s="84" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="15">
       <c r="A39" s="92" t="s">
         <v>198</v>
       </c>
@@ -10856,6 +11231,507 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BCAAF9-CCF7-47AD-A405-61DFB4659ECB}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="129"/>
+    <col min="2" max="2" width="11.5" style="129" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="129" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="129" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="129" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="129" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="129" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="129" customWidth="1"/>
+    <col min="9" max="12" width="9" style="129"/>
+    <col min="13" max="13" width="13.125" style="129" customWidth="1"/>
+    <col min="14" max="14" width="9" style="129"/>
+    <col min="15" max="15" width="15.5" style="129" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="129"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" s="144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="35.25" customHeight="1">
+      <c r="A2" s="130"/>
+      <c r="B2" s="145" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="145" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="145" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="145" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="145" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="145" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="146" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="147" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="148"/>
+      <c r="L2" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="149"/>
+    </row>
+    <row r="3" spans="1:15" ht="15">
+      <c r="A3" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="132">
+        <v>1</v>
+      </c>
+      <c r="C3" s="133">
+        <v>45000000</v>
+      </c>
+      <c r="D3" s="133">
+        <f>C3*40%</f>
+        <v>18000000</v>
+      </c>
+      <c r="E3" s="133">
+        <f>C3*40%</f>
+        <v>18000000</v>
+      </c>
+      <c r="F3" s="133">
+        <f>C3*20%</f>
+        <v>9000000</v>
+      </c>
+      <c r="G3" s="133">
+        <f>C3*20%</f>
+        <v>9000000</v>
+      </c>
+      <c r="H3" s="134">
+        <f>C3*80%</f>
+        <v>36000000</v>
+      </c>
+      <c r="J3" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="136">
+        <v>6</v>
+      </c>
+      <c r="L3" s="151" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="136"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A4" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="132">
+        <v>2</v>
+      </c>
+      <c r="C4" s="133">
+        <v>30000000</v>
+      </c>
+      <c r="D4" s="133">
+        <f>C4*40%</f>
+        <v>12000000</v>
+      </c>
+      <c r="E4" s="133">
+        <f>C4*40%</f>
+        <v>12000000</v>
+      </c>
+      <c r="F4" s="133">
+        <f>C4*20%</f>
+        <v>6000000</v>
+      </c>
+      <c r="G4" s="133">
+        <f>C4*20%</f>
+        <v>6000000</v>
+      </c>
+      <c r="H4" s="134">
+        <f>C4*80%</f>
+        <v>24000000</v>
+      </c>
+      <c r="J4" s="150" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="152">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="153" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="136">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A5" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="132">
+        <v>1</v>
+      </c>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="136"/>
+      <c r="J5" s="154" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="155">
+        <v>0.15</v>
+      </c>
+      <c r="L5" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="M5" s="140">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A6" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="138">
+        <v>2</v>
+      </c>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="140"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" thickBot="1"/>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A8" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="M8" s="119" t="s">
+        <v>245</v>
+      </c>
+      <c r="N8" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="O8" s="121" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30">
+      <c r="A9" s="130"/>
+      <c r="B9" s="145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="145" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="145" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="145" t="s">
+        <v>260</v>
+      </c>
+      <c r="H9" s="145" t="s">
+        <v>261</v>
+      </c>
+      <c r="I9" s="145" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="145" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="146" t="s">
+        <v>263</v>
+      </c>
+      <c r="M9" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="N9" s="122" t="str">
+        <f>I9</f>
+        <v>Freight (€/mt)</v>
+      </c>
+      <c r="O9" s="56" t="str">
+        <f>G9</f>
+        <v>CIF Price (€/mt)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
+      <c r="A10" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="132" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="132">
+        <v>4</v>
+      </c>
+      <c r="D10" s="133">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="133">
+        <f>D10/2</f>
+        <v>1100</v>
+      </c>
+      <c r="F10" s="133">
+        <f>D10/2</f>
+        <v>1100</v>
+      </c>
+      <c r="G10" s="133">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="133">
+        <f>G10*K3</f>
+        <v>12000</v>
+      </c>
+      <c r="I10" s="132">
+        <v>50</v>
+      </c>
+      <c r="J10" s="132">
+        <v>150</v>
+      </c>
+      <c r="K10" s="142">
+        <v>75</v>
+      </c>
+      <c r="M10" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="N10" s="122"/>
+      <c r="O10" s="56"/>
+    </row>
+    <row r="11" spans="1:15" ht="29.25" thickBot="1">
+      <c r="A11" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="132" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="132">
+        <v>7</v>
+      </c>
+      <c r="D11" s="133">
+        <v>1800</v>
+      </c>
+      <c r="E11" s="132">
+        <v>600</v>
+      </c>
+      <c r="F11" s="133">
+        <f>D11-E11</f>
+        <v>1200</v>
+      </c>
+      <c r="G11" s="132">
+        <v>700</v>
+      </c>
+      <c r="H11" s="133">
+        <f>G11*K3</f>
+        <v>4200</v>
+      </c>
+      <c r="I11" s="132">
+        <v>50</v>
+      </c>
+      <c r="J11" s="132">
+        <v>80</v>
+      </c>
+      <c r="K11" s="142">
+        <v>40</v>
+      </c>
+      <c r="M11" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="N11" s="122" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O11" s="56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A12" s="128" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="M12" s="124" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" s="122"/>
+      <c r="O12" s="56" t="e">
+        <f>O9-O11</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A13" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="140"/>
+      <c r="M13" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="N13" s="122" t="e">
+        <f>O12*#REF!</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="M14" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="122" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O14" s="56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A15" s="127" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="M15" s="123" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="122">
+        <f>G1</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="56">
+        <f>H1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="30">
+      <c r="A16" s="130"/>
+      <c r="B16" s="157" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="157" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="157" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="158" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="143"/>
+      <c r="M16" s="123" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" s="122" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A17" s="131" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="163">
+        <v>3</v>
+      </c>
+      <c r="C17" s="163">
+        <v>450</v>
+      </c>
+      <c r="D17" s="163">
+        <v>75</v>
+      </c>
+      <c r="E17" s="164">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="164">
+        <v>3150</v>
+      </c>
+      <c r="G17" s="162"/>
+      <c r="M17" s="124" t="s">
+        <v>243</v>
+      </c>
+      <c r="N17" s="122" t="e">
+        <f>N13-N14-N15-N16</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O17" s="56"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A18" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="M18" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="N18" s="126" t="e">
+        <f>N17*F9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O18" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
